--- a/NativeAot/ErrorSummary.xlsx
+++ b/NativeAot/ErrorSummary.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\test\LakshanF\Temp\NativeAot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509BC005-9E2E-449B-8F20-B254F88230F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB237F2-5D69-4E74-B4F3-B09E2766BAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{B197C31E-E615-4105-9CAB-98677E2994AB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="1" activeTab="2" xr2:uid="{B197C31E-E615-4105-9CAB-98677E2994AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="3050-Summary" sheetId="7" r:id="rId1"/>
+    <sheet name="3050-Summary" sheetId="9" r:id="rId1"/>
     <sheet name="3050" sheetId="4" r:id="rId2"/>
-    <sheet name="3051-Summary" sheetId="8" r:id="rId3"/>
+    <sheet name="3051-Summary" sheetId="10" r:id="rId3"/>
     <sheet name="3051" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -24,8 +24,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="9" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="7" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="71">
   <si>
     <t>System.Type.MakeGenericType(params Type[])</t>
   </si>
@@ -332,12 +332,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,7 +422,31 @@
       </sharedItems>
     </cacheField>
     <cacheField name="RDC Method" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="23">
+        <s v="System.Enum.GetValues(Type)"/>
+        <s v="System.Type.MakeGenericType(params Type[])"/>
+        <s v="System.Runtime.InteropServices.Marshal.SizeOf(Type)"/>
+        <s v="System.Runtime.InteropServices.Marshal.PtrToStructure(IntPtr, Type)"/>
+        <s v="System.Reflection.Emit.AssemblyBuilder.DefineDynamicAssembly(AssemblyName, AssemblyBuilderAccess)"/>
+        <s v="System.Type.MakeArrayType()"/>
+        <s v="System.Type.MakeArrayType(Int32)"/>
+        <s v="System.Reflection.MethodInfo.MakeGenericMethod(params Type[])"/>
+        <s v="System.Array.CreateInstance(Type, Int32)"/>
+        <s v="System.Collections.ArrayList.ToArray(Type)"/>
+        <s v="System.Reflection.Emit.DynamicMethod.DynamicMethod(String, Type, Type[], Module)"/>
+        <s v="System.Runtime.InteropServices.Marshal.GetFunctionPointerForDelegate(Delegate)"/>
+        <s v="System.Runtime.InteropServices.Marshal.DestroyStructure(IntPtr, Type)"/>
+        <s v="System.Reflection.Emit.DynamicMethod.DynamicMethod(String, Type, Type[], Module, Boolean)"/>
+        <s v="System.Reflection.Emit.DynamicMethod.DynamicMethod(String, MethodAttributes, CallingConventions, Type, Type[], Type, Boolean)"/>
+        <s v="System.Reflection.Emit.DynamicMethod.DynamicMethod(String, Type, Type[])"/>
+        <s v="System.Array.CreateInstance(Type, params Int32[])"/>
+        <s v="System.Reflection.Emit.DynamicMethod.DynamicMethod(String, Type, Type[], Boolean)"/>
+        <s v="System.Array.CreateInstance(Type, Int32[], Int32[])"/>
+        <s v="System.Type.GetEnumValues()"/>
+        <s v="System.Runtime.InteropServices.Marshal.PtrToStructure(IntPtr, Object)"/>
+        <s v="System.Runtime.InteropServices.Marshal.StructureToPtr(Object, IntPtr, Boolean)"/>
+        <s v="System.Runtime.InteropServices.Marshal.GetDelegateForFunctionPointer(IntPtr, Type)"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Count" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="536"/>
@@ -447,7 +474,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="RDC Method" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="5">
+        <s v="System.Type.MakeGenericType(params Type[])"/>
+        <s v="System.Type.MakeArrayType()"/>
+        <s v="System.Type.MakeArrayType(Int32)"/>
+        <s v="System.Reflection.MethodInfo.MakeGenericMethod(params Type[])"/>
+        <s v="System.Type.GetEnumValues()"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Count" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="24"/>
@@ -465,557 +498,557 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="111">
   <r>
     <x v="0"/>
-    <s v="System.Enum.GetValues(Type)"/>
+    <x v="0"/>
     <n v="4"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="1"/>
     <n v="12"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="System.Runtime.InteropServices.Marshal.SizeOf(Type)"/>
+    <x v="2"/>
     <n v="12"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="System.Runtime.InteropServices.Marshal.PtrToStructure(IntPtr, Type)"/>
+    <x v="3"/>
     <n v="16"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="System.Reflection.Emit.AssemblyBuilder.DefineDynamicAssembly(AssemblyName, AssemblyBuilderAccess)"/>
+    <x v="4"/>
     <n v="4"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="System.Type.MakeArrayType()"/>
+    <x v="5"/>
     <n v="8"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="System.Type.MakeArrayType(Int32)"/>
+    <x v="6"/>
     <n v="4"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="System.Reflection.MethodInfo.MakeGenericMethod(params Type[])"/>
+    <x v="7"/>
     <n v="4"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="System.Runtime.InteropServices.Marshal.PtrToStructure(IntPtr, Type)"/>
+    <x v="3"/>
     <n v="12"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="System.Runtime.InteropServices.Marshal.SizeOf(Type)"/>
+    <x v="2"/>
     <n v="12"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="System.Array.CreateInstance(Type, Int32)"/>
+    <x v="8"/>
     <n v="88"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="System.Collections.ArrayList.ToArray(Type)"/>
+    <x v="9"/>
     <n v="72"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="System.Reflection.Emit.AssemblyBuilder.DefineDynamicAssembly(AssemblyName, AssemblyBuilderAccess)"/>
+    <x v="4"/>
     <n v="24"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="System.Type.MakeArrayType()"/>
+    <x v="5"/>
     <n v="32"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="1"/>
     <n v="72"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="System.Reflection.MethodInfo.MakeGenericMethod(params Type[])"/>
+    <x v="7"/>
     <n v="8"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="System.Enum.GetValues(Type)"/>
+    <x v="0"/>
     <n v="8"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="System.Reflection.Emit.DynamicMethod.DynamicMethod(String, Type, Type[], Module)"/>
+    <x v="10"/>
     <n v="8"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="System.Runtime.InteropServices.Marshal.GetFunctionPointerForDelegate(Delegate)"/>
+    <x v="11"/>
     <n v="2"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="System.Runtime.InteropServices.Marshal.GetFunctionPointerForDelegate(Delegate)"/>
+    <x v="11"/>
     <n v="4"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="System.Runtime.InteropServices.Marshal.DestroyStructure(IntPtr, Type)"/>
+    <x v="12"/>
     <n v="4"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="1"/>
     <n v="52"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="System.Type.MakeArrayType()"/>
+    <x v="5"/>
     <n v="8"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="System.Type.MakeArrayType(Int32)"/>
+    <x v="6"/>
     <n v="4"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="System.Reflection.MethodInfo.MakeGenericMethod(params Type[])"/>
+    <x v="7"/>
     <n v="4"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="System.Array.CreateInstance(Type, Int32)"/>
+    <x v="8"/>
     <n v="16"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="System.Enum.GetValues(Type)"/>
+    <x v="0"/>
     <n v="4"/>
   </r>
   <r>
     <x v="7"/>
-    <s v="System.Array.CreateInstance(Type, Int32)"/>
+    <x v="8"/>
     <n v="4"/>
   </r>
   <r>
     <x v="8"/>
-    <s v="System.Enum.GetValues(Type)"/>
+    <x v="0"/>
     <n v="4"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="System.Reflection.MethodInfo.MakeGenericMethod(params Type[])"/>
+    <x v="7"/>
     <n v="536"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="1"/>
     <n v="32"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="System.Type.MakeArrayType()"/>
+    <x v="5"/>
     <n v="4"/>
   </r>
   <r>
     <x v="9"/>
-    <s v="System.Type.MakeArrayType(Int32)"/>
+    <x v="6"/>
     <n v="4"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="1"/>
     <n v="148"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="System.Array.CreateInstance(Type, Int32)"/>
+    <x v="8"/>
     <n v="4"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="System.Reflection.Emit.DynamicMethod.DynamicMethod(String, Type, Type[], Module, Boolean)"/>
+    <x v="13"/>
     <n v="12"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="System.Reflection.MethodInfo.MakeGenericMethod(params Type[])"/>
+    <x v="7"/>
     <n v="76"/>
   </r>
   <r>
     <x v="10"/>
-    <s v="System.Type.MakeArrayType()"/>
+    <x v="5"/>
     <n v="12"/>
   </r>
   <r>
     <x v="11"/>
-    <s v="System.Reflection.Emit.AssemblyBuilder.DefineDynamicAssembly(AssemblyName, AssemblyBuilderAccess)"/>
+    <x v="4"/>
     <n v="2"/>
   </r>
   <r>
     <x v="12"/>
-    <s v="System.Reflection.MethodInfo.MakeGenericMethod(params Type[])"/>
+    <x v="7"/>
     <n v="52"/>
   </r>
   <r>
     <x v="12"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="1"/>
     <n v="68"/>
   </r>
   <r>
     <x v="12"/>
-    <s v="System.Reflection.Emit.DynamicMethod.DynamicMethod(String, MethodAttributes, CallingConventions, Type, Type[], Type, Boolean)"/>
+    <x v="14"/>
     <n v="4"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="System.Enum.GetValues(Type)"/>
+    <x v="0"/>
     <n v="2"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="System.Reflection.MethodInfo.MakeGenericMethod(params Type[])"/>
+    <x v="7"/>
     <n v="2"/>
   </r>
   <r>
     <x v="13"/>
-    <s v="System.Array.CreateInstance(Type, Int32)"/>
+    <x v="8"/>
     <n v="4"/>
   </r>
   <r>
     <x v="14"/>
-    <s v="System.Runtime.InteropServices.Marshal.SizeOf(Type)"/>
+    <x v="2"/>
     <n v="4"/>
   </r>
   <r>
     <x v="15"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="1"/>
     <n v="12"/>
   </r>
   <r>
     <x v="16"/>
-    <s v="System.Reflection.MethodInfo.MakeGenericMethod(params Type[])"/>
+    <x v="7"/>
     <n v="28"/>
   </r>
   <r>
     <x v="16"/>
-    <s v="System.Reflection.Emit.DynamicMethod.DynamicMethod(String, Type, Type[])"/>
+    <x v="15"/>
     <n v="2"/>
   </r>
   <r>
     <x v="16"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="1"/>
     <n v="16"/>
   </r>
   <r>
     <x v="16"/>
-    <s v="System.Type.MakeArrayType()"/>
+    <x v="5"/>
     <n v="4"/>
   </r>
   <r>
     <x v="16"/>
-    <s v="System.Type.MakeArrayType(Int32)"/>
+    <x v="6"/>
     <n v="2"/>
   </r>
   <r>
     <x v="16"/>
-    <s v="System.Array.CreateInstance(Type, params Int32[])"/>
+    <x v="16"/>
     <n v="2"/>
   </r>
   <r>
     <x v="16"/>
-    <s v="System.Array.CreateInstance(Type, Int32)"/>
+    <x v="8"/>
     <n v="4"/>
   </r>
   <r>
     <x v="16"/>
-    <s v="System.Reflection.Emit.DynamicMethod.DynamicMethod(String, Type, Type[], Boolean)"/>
+    <x v="17"/>
     <n v="2"/>
   </r>
   <r>
     <x v="16"/>
-    <s v="System.Reflection.Emit.AssemblyBuilder.DefineDynamicAssembly(AssemblyName, AssemblyBuilderAccess)"/>
+    <x v="4"/>
     <n v="2"/>
   </r>
   <r>
     <x v="17"/>
-    <s v="System.Reflection.Emit.DynamicMethod.DynamicMethod(String, Type, Type[], Module, Boolean)"/>
+    <x v="13"/>
     <n v="16"/>
   </r>
   <r>
     <x v="17"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="1"/>
     <n v="32"/>
   </r>
   <r>
     <x v="17"/>
-    <s v="System.Reflection.MethodInfo.MakeGenericMethod(params Type[])"/>
+    <x v="7"/>
     <n v="10"/>
   </r>
   <r>
     <x v="17"/>
-    <s v="System.Enum.GetValues(Type)"/>
+    <x v="0"/>
     <n v="2"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="System.Array.CreateInstance(Type, Int32)"/>
+    <x v="8"/>
     <n v="2"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="System.Array.CreateInstance(Type, Int32[], Int32[])"/>
+    <x v="18"/>
     <n v="4"/>
   </r>
   <r>
     <x v="18"/>
-    <s v="System.Array.CreateInstance(Type, params Int32[])"/>
+    <x v="16"/>
     <n v="2"/>
   </r>
   <r>
     <x v="19"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
     <x v="20"/>
-    <s v="System.Reflection.Emit.DynamicMethod.DynamicMethod(String, MethodAttributes, CallingConventions, Type, Type[], Type, Boolean)"/>
+    <x v="14"/>
     <n v="4"/>
   </r>
   <r>
     <x v="20"/>
-    <s v="System.Array.CreateInstance(Type, Int32)"/>
+    <x v="8"/>
     <n v="4"/>
   </r>
   <r>
     <x v="20"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="1"/>
     <n v="8"/>
   </r>
   <r>
     <x v="20"/>
-    <s v="System.Reflection.MethodInfo.MakeGenericMethod(params Type[])"/>
+    <x v="7"/>
     <n v="4"/>
   </r>
   <r>
     <x v="20"/>
-    <s v="System.Type.MakeArrayType()"/>
+    <x v="5"/>
     <n v="4"/>
   </r>
   <r>
     <x v="21"/>
-    <s v="System.Type.MakeArrayType()"/>
+    <x v="5"/>
     <n v="2"/>
   </r>
   <r>
     <x v="22"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
     <x v="23"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="1"/>
     <n v="12"/>
   </r>
   <r>
     <x v="23"/>
-    <s v="System.Array.CreateInstance(Type, Int32)"/>
+    <x v="8"/>
     <n v="8"/>
   </r>
   <r>
     <x v="24"/>
-    <s v="System.Type.MakeArrayType()"/>
+    <x v="5"/>
     <n v="4"/>
   </r>
   <r>
     <x v="24"/>
-    <s v="System.Type.MakeArrayType(Int32)"/>
+    <x v="6"/>
     <n v="4"/>
   </r>
   <r>
     <x v="24"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="1"/>
     <n v="8"/>
   </r>
   <r>
     <x v="25"/>
-    <s v="System.Type.MakeArrayType()"/>
+    <x v="5"/>
     <n v="4"/>
   </r>
   <r>
     <x v="25"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="1"/>
     <n v="28"/>
   </r>
   <r>
     <x v="25"/>
-    <s v="System.Array.CreateInstance(Type, Int32)"/>
+    <x v="8"/>
     <n v="8"/>
   </r>
   <r>
     <x v="25"/>
-    <s v="System.Reflection.MethodInfo.MakeGenericMethod(params Type[])"/>
+    <x v="7"/>
     <n v="20"/>
   </r>
   <r>
     <x v="25"/>
-    <s v="System.Reflection.Emit.AssemblyBuilder.DefineDynamicAssembly(AssemblyName, AssemblyBuilderAccess)"/>
+    <x v="4"/>
     <n v="4"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="System.Array.CreateInstance(Type, Int32)"/>
+    <x v="8"/>
     <n v="2"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="System.Type.GetEnumValues()"/>
+    <x v="19"/>
     <n v="2"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="System.Type.MakeArrayType()"/>
+    <x v="5"/>
     <n v="4"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="System.Type.MakeArrayType(Int32)"/>
+    <x v="6"/>
     <n v="4"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="1"/>
     <n v="4"/>
   </r>
   <r>
     <x v="26"/>
-    <s v="System.Reflection.MethodInfo.MakeGenericMethod(params Type[])"/>
+    <x v="7"/>
     <n v="4"/>
   </r>
   <r>
     <x v="27"/>
-    <s v="System.Reflection.MethodInfo.MakeGenericMethod(params Type[])"/>
+    <x v="7"/>
     <n v="24"/>
   </r>
   <r>
     <x v="28"/>
-    <s v="System.Array.CreateInstance(Type, Int32)"/>
+    <x v="8"/>
     <n v="8"/>
   </r>
   <r>
     <x v="28"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="1"/>
     <n v="12"/>
   </r>
   <r>
     <x v="29"/>
-    <s v="System.Runtime.InteropServices.Marshal.SizeOf(Type)"/>
+    <x v="2"/>
     <n v="2"/>
   </r>
   <r>
     <x v="30"/>
-    <s v="System.Runtime.InteropServices.Marshal.SizeOf(Type)"/>
+    <x v="2"/>
     <n v="36"/>
   </r>
   <r>
     <x v="30"/>
-    <s v="System.Runtime.InteropServices.Marshal.PtrToStructure(IntPtr, Type)"/>
+    <x v="3"/>
     <n v="8"/>
   </r>
   <r>
     <x v="31"/>
-    <s v="System.Array.CreateInstance(Type, Int32)"/>
+    <x v="8"/>
     <n v="4"/>
   </r>
   <r>
     <x v="32"/>
-    <s v="System.Runtime.InteropServices.Marshal.SizeOf(Type)"/>
+    <x v="2"/>
     <n v="8"/>
   </r>
   <r>
     <x v="32"/>
-    <s v="System.Runtime.InteropServices.Marshal.PtrToStructure(IntPtr, Object)"/>
+    <x v="20"/>
     <n v="4"/>
   </r>
   <r>
     <x v="32"/>
-    <s v="System.Runtime.InteropServices.Marshal.StructureToPtr(Object, IntPtr, Boolean)"/>
+    <x v="21"/>
     <n v="4"/>
   </r>
   <r>
     <x v="33"/>
-    <s v="System.Runtime.InteropServices.Marshal.SizeOf(Type)"/>
+    <x v="2"/>
     <n v="8"/>
   </r>
   <r>
     <x v="34"/>
-    <s v="System.Runtime.InteropServices.Marshal.SizeOf(Type)"/>
+    <x v="2"/>
     <n v="16"/>
   </r>
   <r>
     <x v="34"/>
-    <s v="System.Enum.GetValues(Type)"/>
+    <x v="0"/>
     <n v="8"/>
   </r>
   <r>
     <x v="35"/>
-    <s v="System.Runtime.InteropServices.Marshal.SizeOf(Type)"/>
+    <x v="2"/>
     <n v="124"/>
   </r>
   <r>
     <x v="35"/>
-    <s v="System.Runtime.InteropServices.Marshal.PtrToStructure(IntPtr, Type)"/>
+    <x v="3"/>
     <n v="16"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="System.Runtime.InteropServices.Marshal.SizeOf(Type)"/>
+    <x v="2"/>
     <n v="24"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="System.Runtime.InteropServices.Marshal.GetDelegateForFunctionPointer(IntPtr, Type)"/>
+    <x v="22"/>
     <n v="14"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="System.Runtime.InteropServices.Marshal.StructureToPtr(Object, IntPtr, Boolean)"/>
+    <x v="21"/>
     <n v="2"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="System.Enum.GetValues(Type)"/>
+    <x v="0"/>
     <n v="2"/>
   </r>
   <r>
     <x v="36"/>
-    <s v="System.Runtime.InteropServices.Marshal.PtrToStructure(IntPtr, Type)"/>
+    <x v="3"/>
     <n v="2"/>
   </r>
   <r>
     <x v="37"/>
-    <s v="System.Runtime.InteropServices.Marshal.SizeOf(Type)"/>
+    <x v="2"/>
     <n v="4"/>
   </r>
   <r>
     <x v="37"/>
-    <s v="System.Runtime.InteropServices.Marshal.StructureToPtr(Object, IntPtr, Boolean)"/>
+    <x v="21"/>
     <n v="4"/>
   </r>
   <r>
     <x v="38"/>
-    <s v="System.Runtime.InteropServices.Marshal.PtrToStructure(IntPtr, Type)"/>
+    <x v="3"/>
     <n v="18"/>
   </r>
   <r>
     <x v="38"/>
-    <s v="System.Runtime.InteropServices.Marshal.SizeOf(Type)"/>
+    <x v="2"/>
     <n v="6"/>
   </r>
 </pivotCacheRecords>
@@ -1025,80 +1058,80 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="14">
   <r>
     <x v="0"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="0"/>
     <n v="16"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="System.Type.MakeArrayType()"/>
+    <x v="1"/>
     <n v="24"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="System.Type.MakeArrayType(Int32)"/>
+    <x v="2"/>
     <n v="24"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="System.Reflection.MethodInfo.MakeGenericMethod(params Type[])"/>
+    <x v="3"/>
     <n v="12"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="System.Type.GetEnumValues()"/>
+    <x v="4"/>
     <n v="2"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="System.Reflection.MethodInfo.MakeGenericMethod(params Type[])"/>
+    <x v="3"/>
     <n v="4"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="System.Type.MakeArrayType()"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="System.Type.MakeArrayType(Int32)"/>
+    <x v="2"/>
     <n v="2"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="0"/>
     <n v="2"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="System.Type.MakeArrayType()"/>
+    <x v="1"/>
     <n v="4"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="System.Type.MakeArrayType(Int32)"/>
+    <x v="2"/>
     <n v="4"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="System.Type.MakeGenericType(params Type[])"/>
+    <x v="0"/>
     <n v="4"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="System.Type.GetEnumValues()"/>
+    <x v="4"/>
     <n v="4"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="System.Reflection.MethodInfo.MakeGenericMethod(params Type[])"/>
+    <x v="3"/>
     <n v="4"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BA5125BA-8D24-4298-A0FD-E6FBEB80620F}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Project">
-  <location ref="A3:B43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F56E54B1-9E6D-4715-9308-4931D1ED410B}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B154" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="40">
@@ -1153,129 +1186,490 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="24">
+        <item x="8"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="22"/>
+        <item x="11"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="21"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="0"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="40">
+  <rowItems count="151">
     <i>
       <x v="26"/>
     </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
     <i>
       <x v="30"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
     <i>
       <x v="29"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
     <i>
       <x v="21"/>
     </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
       <x v="37"/>
     </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
     <i>
       <x/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
     <i>
       <x v="8"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
     <i>
       <x v="25"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
     <i>
       <x v="36"/>
     </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
     <i>
       <x v="15"/>
     </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
     <i>
       <x v="20"/>
     </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
       <x v="5"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
     <i>
       <x v="18"/>
     </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
       <x v="10"/>
     </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
     <i>
       <x v="19"/>
     </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
     <i>
       <x v="31"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
     <i>
       <x v="12"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
     <i>
       <x v="33"/>
     </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
     <i>
       <x v="22"/>
     </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
     <i>
       <x v="35"/>
     </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
     <i>
       <x v="16"/>
     </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
     <i>
       <x v="27"/>
     </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
       <x v="14"/>
     </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
     <i>
       <x v="34"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
     <i>
       <x v="38"/>
     </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
       <x v="13"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
     <i>
       <x v="9"/>
     </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
     <i>
       <x v="23"/>
     </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
       <x v="17"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
     <i>
       <x v="7"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
     <i>
       <x v="24"/>
     </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
     <i>
       <x v="6"/>
     </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
       <x v="4"/>
     </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
     <i>
       <x v="11"/>
     </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
     <i>
       <x v="28"/>
     </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
     <i>
       <x v="32"/>
     </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
     <i>
       <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
     </i>
     <i t="grand">
       <x/>
@@ -1300,8 +1694,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{294C4228-E756-46ED-BFEA-69F6FE800485}" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7BA4512-1AE1-47F6-8B23-0BF834E3296D}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="4">
@@ -1320,21 +1714,73 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="0"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="18">
     <i>
       <x/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
     <i>
       <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -1708,22 +2154,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02692CB-4DF2-40B5-A30E-D672D03D4973}">
-  <dimension ref="A3:B43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33EA3AB-1B44-4EFE-AF18-10FB97F868C7}">
+  <dimension ref="A3:B154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="126.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="132.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -1738,314 +2184,1202 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>25</v>
+      <c r="A5" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>312</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
         <v>32</v>
-      </c>
-      <c r="B6" s="1">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
-        <v>96</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>47</v>
+      <c r="A10" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B10" s="1">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>38</v>
+      <c r="A11" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>39</v>
+      <c r="A12" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
+      <c r="A13" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B13" s="1">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>60</v>
+      <c r="A14" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>52</v>
+      <c r="A15" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>42</v>
+      <c r="A16" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>58</v>
+      <c r="A17" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B17" s="1">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1">
-        <v>24</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>63</v>
+      <c r="A19" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B19" s="1">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>45</v>
+      <c r="A20" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B20" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>48</v>
+      <c r="A21" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B21" s="1">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>50</v>
+      <c r="A22" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B22" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>46</v>
+      <c r="A23" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B23" s="1">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1">
-        <v>12</v>
-      </c>
-    </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>37</v>
+      <c r="A26" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B26" s="1">
-        <v>12</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1">
-        <v>12</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>62</v>
+      <c r="A28" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B28" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
-        <v>40</v>
+      <c r="A29" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B29" s="1">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>57</v>
+      <c r="A30" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B30" s="1">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="1">
-        <v>2</v>
-      </c>
-    </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
-        <v>44</v>
+      <c r="A38" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="3" t="s">
-        <v>43</v>
+      <c r="A39" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B39" s="1">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B95" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B109" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B110" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B112" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B117" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B121" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B122" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B126" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B128" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B132" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B134" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B136" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B138" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B142" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B144" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B146" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
+      <c r="B148" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
+      <c r="B150" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="3" t="s">
+      <c r="B152" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B154" s="1">
         <v>2122</v>
       </c>
     </row>
@@ -2058,7 +3392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A40FFD0-362B-4727-B5F1-EA66C0586361}">
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -3310,16 +4644,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C75C34-57E8-465A-AB7B-348355E91B8A}">
-  <dimension ref="A3:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852876EE-DAA6-4435-AC8F-60F9AE059435}">
+  <dimension ref="A3:B21"/>
   <sheetViews>
-    <sheetView zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="116" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="116.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3340,26 +4674,138 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B9" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B21" s="1">
         <v>108</v>
       </c>
     </row>

--- a/NativeAot/ErrorSummary.xlsx
+++ b/NativeAot/ErrorSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\test\LakshanF\Temp\NativeAot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB237F2-5D69-4E74-B4F3-B09E2766BAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54D2B77-DA3B-42C7-BCEF-36DB3D5935DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="1" activeTab="2" xr2:uid="{B197C31E-E615-4105-9CAB-98677E2994AB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{B197C31E-E615-4105-9CAB-98677E2994AB}"/>
   </bookViews>
   <sheets>
     <sheet name="3050-Summary" sheetId="9" r:id="rId1"/>
@@ -346,7 +346,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1186,7 +1198,7 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="24">
         <item x="8"/>
         <item x="18"/>
@@ -1213,6 +1225,15 @@
         <item x="1"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
@@ -1228,13 +1249,13 @@
       <x v="11"/>
     </i>
     <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
       <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
     </i>
     <i>
       <x v="30"/>
@@ -1243,232 +1264,232 @@
       <x/>
     </i>
     <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
       <x v="3"/>
     </i>
     <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
       <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
     </i>
     <i>
       <x v="29"/>
     </i>
     <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
       <x/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
     </i>
     <i>
       <x v="21"/>
     </i>
     <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
       <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
     </i>
     <i>
       <x v="37"/>
     </i>
     <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
       <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
     </i>
     <i>
       <x/>
     </i>
     <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
       <x/>
     </i>
     <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
       <x v="4"/>
     </i>
     <i r="1">
-      <x v="11"/>
+      <x v="14"/>
     </i>
     <i r="1">
       <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
     </i>
     <i>
       <x v="8"/>
     </i>
     <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
       <x/>
     </i>
     <i r="1">
       <x v="5"/>
     </i>
     <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
       <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
     </i>
     <i>
       <x v="25"/>
     </i>
     <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
       <x/>
     </i>
     <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
       <x v="2"/>
     </i>
     <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
       <x v="7"/>
     </i>
     <i r="1">
       <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
     </i>
     <i>
       <x v="36"/>
     </i>
     <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
       <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
       <x v="5"/>
     </i>
     <i r="1">
       <x v="11"/>
     </i>
     <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
       <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
     </i>
     <i>
       <x v="15"/>
     </i>
     <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
       <x v="4"/>
     </i>
     <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
       <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
     </i>
     <i>
       <x v="20"/>
     </i>
     <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
       <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
       <x/>
     </i>
     <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
       <x v="6"/>
     </i>
     <i r="1">
       <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
     </i>
     <i>
       <x v="18"/>
     </i>
     <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
       <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
     </i>
     <i>
       <x v="10"/>
@@ -1489,64 +1510,64 @@
       <x v="2"/>
     </i>
     <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
       <x/>
-    </i>
-    <i r="1">
-      <x v="22"/>
     </i>
     <i>
       <x v="31"/>
     </i>
     <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
       <x/>
     </i>
     <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
       <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
     </i>
     <i>
       <x v="12"/>
     </i>
     <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
       <x/>
-    </i>
-    <i r="1">
-      <x v="22"/>
     </i>
     <i>
       <x v="33"/>
     </i>
     <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
       <x v="20"/>
     </i>
     <i r="1">
       <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
     </i>
     <i>
       <x v="22"/>
     </i>
     <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
       <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
     </i>
     <i>
       <x v="35"/>
@@ -1570,22 +1591,22 @@
       <x v="14"/>
     </i>
     <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
       <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
     </i>
     <i>
       <x v="34"/>
     </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
       <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
     </i>
     <i>
       <x v="38"/>
@@ -1600,10 +1621,10 @@
       <x/>
     </i>
     <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
       <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
     </i>
     <i>
       <x v="9"/>
@@ -1829,30 +1850,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{874064A8-8344-47CB-88DF-941A5A4B06F9}" name="AllFiles_3051" displayName="AllFiles_3051" ref="A1:C112" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{874064A8-8344-47CB-88DF-941A5A4B06F9}" name="AllFiles_3051" displayName="AllFiles_3051" ref="A1:C113" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A1:C112" xr:uid="{874064A8-8344-47CB-88DF-941A5A4B06F9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C112">
     <sortCondition ref="A1:A112"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C3360C5A-2F86-42E5-AB89-ADC0E4952476}" uniqueName="1" name="Project" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{CA2869C4-FAAA-4B9C-8CF4-088938E4BF2F}" uniqueName="2" name="RDC Method" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{C1B41759-FECB-45EC-A579-174842D8CD89}" uniqueName="3" name="Count" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{C3360C5A-2F86-42E5-AB89-ADC0E4952476}" uniqueName="1" name="Project" queryTableFieldId="1" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{CA2869C4-FAAA-4B9C-8CF4-088938E4BF2F}" uniqueName="2" name="RDC Method" queryTableFieldId="2" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{C1B41759-FECB-45EC-A579-174842D8CD89}" uniqueName="3" name="Count" totalsRowFunction="sum" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4150EC63-DA66-42BB-90EA-CA317F21CC05}" name="AllFiles_3051__2" displayName="AllFiles_3051__2" ref="A1:C15" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4150EC63-DA66-42BB-90EA-CA317F21CC05}" name="AllFiles_3051__2" displayName="AllFiles_3051__2" ref="A1:C16" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A1:C15" xr:uid="{4150EC63-DA66-42BB-90EA-CA317F21CC05}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
     <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FE06FD2F-4AA4-4B94-9992-94F7A5A83164}" uniqueName="1" name="Project" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{DF977205-6558-4949-B4A0-A802439CC69F}" uniqueName="2" name="RDC Method" queryTableFieldId="2" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{403F161F-2D60-4416-9627-3A067212A2B0}" uniqueName="3" name="Count" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{FE06FD2F-4AA4-4B94-9992-94F7A5A83164}" uniqueName="1" name="Project" queryTableFieldId="1" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{DF977205-6558-4949-B4A0-A802439CC69F}" uniqueName="2" name="RDC Method" queryTableFieldId="2" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{403F161F-2D60-4416-9627-3A067212A2B0}" uniqueName="3" name="Count" totalsRowFunction="sum" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2157,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33EA3AB-1B44-4EFE-AF18-10FB97F868C7}">
   <dimension ref="A3:B154"/>
   <sheetViews>
-    <sheetView zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2193,10 +2214,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -2209,10 +2230,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -2233,7 +2254,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1">
         <v>72</v>
@@ -2241,26 +2262,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -2273,18 +2294,18 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -2297,26 +2318,26 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B19" s="1">
-        <v>4</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -2329,10 +2350,10 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1">
-        <v>148</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -2345,18 +2366,18 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -2369,10 +2390,10 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B28" s="1">
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -2385,10 +2406,10 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1">
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -2401,31 +2422,31 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B32" s="1">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B35" s="1">
         <v>4</v>
@@ -2433,7 +2454,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B36" s="1">
         <v>4</v>
@@ -2441,15 +2462,15 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B38" s="1">
         <v>4</v>
@@ -2457,10 +2478,10 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -2473,31 +2494,31 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B41" s="1">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B42" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B44" s="1">
         <v>4</v>
@@ -2505,10 +2526,10 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B45" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -2521,39 +2542,39 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" s="1">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B48" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B49" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="4" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B50" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B51" s="1">
         <v>2</v>
@@ -2561,23 +2582,23 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B52" s="1">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B53" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B54" s="1">
         <v>2</v>
@@ -2585,10 +2606,10 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B55" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -2601,10 +2622,10 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B57" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -2625,10 +2646,10 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B60" s="1">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -2641,47 +2662,47 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B64" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B65" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B66" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B67" s="1">
         <v>4</v>
@@ -2689,10 +2710,10 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" s="4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B68" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -2705,10 +2726,10 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -2721,7 +2742,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" s="4" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B72" s="1">
         <v>2</v>
@@ -2729,15 +2750,15 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B73" s="1">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="4" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B74" s="1">
         <v>2</v>
@@ -2753,18 +2774,18 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B76" s="1">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B77" s="1">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -2777,15 +2798,15 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B79" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" s="4" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B80" s="1">
         <v>4</v>
@@ -2793,7 +2814,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B81" s="1">
         <v>4</v>
@@ -2801,7 +2822,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B82" s="1">
         <v>4</v>
@@ -2809,10 +2830,10 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -2825,18 +2846,18 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B85" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B86" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
@@ -2889,18 +2910,18 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B93" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B94" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -2913,15 +2934,15 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B96" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B97" s="1">
         <v>4</v>
@@ -2929,15 +2950,15 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B98" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B99" s="1">
         <v>4</v>
@@ -2945,18 +2966,18 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B100" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B101" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -2969,18 +2990,18 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B103" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B104" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -2993,15 +3014,15 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B106" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B107" s="1">
         <v>4</v>
@@ -3009,10 +3030,10 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" s="4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B108" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -3025,23 +3046,23 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B110" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B111" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B112" s="1">
         <v>4</v>
@@ -3105,7 +3126,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B120" s="1">
         <v>4</v>
@@ -3113,7 +3134,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" s="4" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B121" s="1">
         <v>4</v>
@@ -3129,23 +3150,23 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B123" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B124" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B125" s="1">
         <v>2</v>
@@ -3185,7 +3206,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" s="4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B130" s="1">
         <v>2</v>
@@ -3193,7 +3214,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B131" s="1">
         <v>2</v>
@@ -3390,10 +3411,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A40FFD0-362B-4727-B5F1-EA66C0586361}">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A76" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4635,6 +4656,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113">
+        <f>SUBTOTAL(109,AllFiles_3051[Count])</f>
+        <v>2122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4647,7 +4676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852876EE-DAA6-4435-AC8F-60F9AE059435}">
   <dimension ref="A3:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4816,9 +4845,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198A5971-4732-4036-B66C-A6F941D723E0}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4990,6 +5021,14 @@
       </c>
       <c r="C15">
         <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16">
+        <f>SUBTOTAL(109,AllFiles_3051__2[Count])</f>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
